--- a/target/test-classes/testData/ReadExecl.xlsx
+++ b/target/test-classes/testData/ReadExecl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panther/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panther/eclipse-workspace/ReadExcelFIle/src/test/java/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C58273-CE7F-9D4C-A3EC-F8F0C34C8090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19490B6-CCB5-9B4C-A520-813D793988A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{FBE2C4A5-B11C-DB40-B942-AE372F4DCF4A}"/>
+    <workbookView xWindow="760" yWindow="540" windowWidth="28040" windowHeight="16160" xr2:uid="{FBE2C4A5-B11C-DB40-B942-AE372F4DCF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>somun</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>somun12</t>
-  </si>
-  <si>
-    <t>somun2</t>
-  </si>
-  <si>
-    <t>somun123</t>
   </si>
 </sst>
 </file>
@@ -404,7 +395,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,15 +413,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
